--- a/output/report_project_9_Juli_-_26_September_2024.xlsx
+++ b/output/report_project_9_Juli_-_26_September_2024.xlsx
@@ -1120,7 +1120,7 @@
         <v/>
       </c>
       <c r="M6" s="17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="N6" s="17" t="n">
         <v>0</v>
@@ -28675,7 +28675,7 @@
         <v>8.5</v>
       </c>
       <c r="M6" s="17" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="N6" s="17" t="n">
         <v>0</v>
@@ -28741,10 +28741,10 @@
         <v>0</v>
       </c>
       <c r="AI6" s="18" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AJ6" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK6" s="20" t="n">
         <v>20000</v>
@@ -28753,13 +28753,13 @@
         <v>21000</v>
       </c>
       <c r="AM6" s="22" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="AN6" s="22" t="n">
-        <v>178500</v>
+        <v>357000</v>
       </c>
       <c r="AO6" s="23" t="n">
-        <v>198500</v>
+        <v>397000</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="39">
